--- a/speedTest/JU/result.xlsx
+++ b/speedTest/JU/result.xlsx
@@ -8,13 +8,123 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Reproduction-Copa\speedTest\JU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A14C2C-84DD-4764-AFDC-0C5EFB14C17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C925F52-FFD0-4D21-A67B-72EF7C2FEDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AB$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$1</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$T$2:$T$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$X$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$X$2:$X$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$2:$H$31</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$2:$L$31</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$P$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$P$2:$P$31</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Sheet1!$E$2:$E$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -174,6 +284,2596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D6167583-5F47-40C6-9667-185A992FD8CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>JUbbr1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FC0E80B8-2244-4856-91D9-DEC22955896A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>JUbbrplus1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{80AC7B99-7824-4386-8B5A-77A8B1C85C94}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>JUcubic1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E7DB14B9-2340-41C9-AD07-A202B1A4903A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>JUlotserver1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{97E71D9D-BE2B-4254-A036-E70486F54DD5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>JUnanqinlang1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A6388B56-E1BB-434C-B6E3-D1AE303724E8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>JUreno1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A7C6D6B1-A986-4228-934C-B773180431BD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>JUtsunami1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Different Congestion Control</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate/Mbps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FF7FA4FE-5A5B-454F-B77A-158337E23E84}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>JUbbr32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5EA7E9EB-2431-4205-96B8-AA1E71BF9E3D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>JUbbrplus32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{183AF582-FDE8-4AF7-ACDB-120963B9BE9F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>JUcubic32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C9C0903C-DB4B-4E8F-8399-973F76FFC72B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>JUlotserver32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{373CEB49-D121-4E66-8FE4-5677FF0100BD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>JUnanqinlang32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{57001DBA-18A3-4282-BD69-030E1A485E95}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>JUreno32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3D7F1022-2F55-485E-99F3-E59A3B1DD7F6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>JUtsunami32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Different Congestion Control</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate/Mbps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.69</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.71</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.73</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.75</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1583E06B-A9FD-43AE-8485-02A4E51EE969}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:v>JUbbr1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EBC690D-32DD-4E0D-B220-E0CED7EF79CD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:v>JUbbr8</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CEDB2264-1146-4329-9B4C-FED589788CF0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:v>JUbbr16</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{80E98B62-457E-45AD-956B-7F0F86C2C3EA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:v>JUbbr32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>79827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>179161</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF99A18-9FDA-4619-92C0-F1D381B89507}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3565072" y="6974113"/>
+              <a:ext cx="8790213" cy="6267905"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="图表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D74FAD8-1ED8-47F4-AB0D-3F5AA0D2F321}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3891642" y="7790542"/>
+              <a:ext cx="8772072" cy="6270173"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="图表 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5888D6E0-87CF-4FE1-92C3-167892D9D8D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3891642" y="7799614"/>
+              <a:ext cx="8772071" cy="6270172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,24 +3141,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" activeCellId="3" sqref="D2:D31 H2:H31 L2:L31 P2:P31"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -533,18 +3233,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>29.3</v>
       </c>
       <c r="C2" s="1">
+        <v>235</v>
+      </c>
+      <c r="D2" s="1">
         <v>446</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>528</v>
-      </c>
-      <c r="E2" s="1">
-        <v>235</v>
       </c>
       <c r="F2" s="1">
         <v>31.3</v>
@@ -619,18 +3319,18 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>115</v>
       </c>
       <c r="C3" s="1">
+        <v>839</v>
+      </c>
+      <c r="D3" s="1">
         <v>1648.64</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2058.2399999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>839</v>
       </c>
       <c r="F3" s="1">
         <v>136</v>
@@ -705,18 +3405,18 @@
         <v>975</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>220</v>
       </c>
       <c r="C4" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D4" s="1">
         <v>2764.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2785.28</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F4" s="1">
         <v>231</v>
@@ -791,18 +3491,18 @@
         <v>1781.76</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>220</v>
       </c>
       <c r="C5" s="1">
+        <v>1792</v>
+      </c>
+      <c r="D5" s="1">
         <v>2744.32</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2775.04</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1792</v>
       </c>
       <c r="F5" s="1">
         <v>241</v>
@@ -877,18 +3577,18 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>210</v>
       </c>
       <c r="C6" s="1">
+        <v>1792</v>
+      </c>
+      <c r="D6" s="1">
         <v>2744.32</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2816</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1792</v>
       </c>
       <c r="F6" s="1">
         <v>231</v>
@@ -963,18 +3663,18 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>231</v>
       </c>
       <c r="C7" s="1">
+        <v>1771.52</v>
+      </c>
+      <c r="D7" s="1">
         <v>2775.04</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2785.28</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1771.52</v>
       </c>
       <c r="F7" s="1">
         <v>231</v>
@@ -1049,18 +3749,18 @@
         <v>1832.96</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>220</v>
       </c>
       <c r="C8" s="1">
+        <v>1771.52</v>
+      </c>
+      <c r="D8" s="1">
         <v>2754.56</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>2785.28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1771.52</v>
       </c>
       <c r="F8" s="1">
         <v>220</v>
@@ -1135,18 +3835,18 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>210</v>
       </c>
       <c r="C9" s="1">
-        <v>2805.76</v>
+        <v>1771.52</v>
       </c>
       <c r="D9" s="1">
         <v>2805.76</v>
       </c>
       <c r="E9" s="1">
-        <v>1771.52</v>
+        <v>2805.76</v>
       </c>
       <c r="F9" s="1">
         <v>231</v>
@@ -1221,18 +3921,18 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>220</v>
       </c>
       <c r="C10" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D10" s="1">
         <v>2764.8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>2795.52</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F10" s="1">
         <v>241</v>
@@ -1307,18 +4007,18 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>220</v>
       </c>
       <c r="C11" s="1">
+        <v>1802.24</v>
+      </c>
+      <c r="D11" s="1">
         <v>2723.84</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>2641.92</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1802.24</v>
       </c>
       <c r="F11" s="1">
         <v>220</v>
@@ -1393,18 +4093,18 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>220</v>
       </c>
       <c r="C12" s="1">
+        <v>1792</v>
+      </c>
+      <c r="D12" s="1">
         <v>2764.8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2652.16</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1792</v>
       </c>
       <c r="F12" s="1">
         <v>231</v>
@@ -1479,18 +4179,18 @@
         <v>1781.76</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>210</v>
       </c>
       <c r="C13" s="1">
+        <v>1474.56</v>
+      </c>
+      <c r="D13" s="1">
         <v>2078.7199999999998</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>2355.1999999999998</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1474.56</v>
       </c>
       <c r="F13" s="1">
         <v>189</v>
@@ -1565,18 +4265,18 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>220</v>
       </c>
       <c r="C14" s="1">
+        <v>1761.28</v>
+      </c>
+      <c r="D14" s="1">
         <v>2775.04</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>2826.24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1761.28</v>
       </c>
       <c r="F14" s="1">
         <v>210</v>
@@ -1651,18 +4351,18 @@
         <v>1832.96</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>220</v>
       </c>
       <c r="C15" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D15" s="1">
         <v>2764.8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>2775.04</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F15" s="1">
         <v>231</v>
@@ -1737,18 +4437,18 @@
         <v>1822.72</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>220</v>
       </c>
       <c r="C16" s="1">
+        <v>1792</v>
+      </c>
+      <c r="D16" s="1">
         <v>2795.52</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>2775.04</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1792</v>
       </c>
       <c r="F16" s="1">
         <v>241</v>
@@ -1823,18 +4523,18 @@
         <v>1812.48</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>220</v>
       </c>
       <c r="C17" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D17" s="1">
         <v>2754.56</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>2795.52</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F17" s="1">
         <v>220</v>
@@ -1909,18 +4609,18 @@
         <v>1812.48</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>220</v>
       </c>
       <c r="C18" s="1">
-        <v>2805.76</v>
+        <v>1761.28</v>
       </c>
       <c r="D18" s="1">
         <v>2805.76</v>
       </c>
       <c r="E18" s="1">
-        <v>1761.28</v>
+        <v>2805.76</v>
       </c>
       <c r="F18" s="1">
         <v>231</v>
@@ -1995,18 +4695,18 @@
         <v>1822.72</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>220</v>
       </c>
       <c r="C19" s="1">
+        <v>1730.56</v>
+      </c>
+      <c r="D19" s="1">
         <v>2764.8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>2795.52</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1730.56</v>
       </c>
       <c r="F19" s="1">
         <v>231</v>
@@ -2081,18 +4781,18 @@
         <v>1822.72</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>220</v>
       </c>
       <c r="C20" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D20" s="1">
         <v>2754.56</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>2816</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F20" s="1">
         <v>241</v>
@@ -2167,18 +4867,18 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>210</v>
       </c>
       <c r="C21" s="1">
+        <v>1771.52</v>
+      </c>
+      <c r="D21" s="1">
         <v>2816</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>2805.76</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1771.52</v>
       </c>
       <c r="F21" s="1">
         <v>220</v>
@@ -2253,18 +4953,18 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>199</v>
       </c>
       <c r="C22" s="1">
+        <v>1669.12</v>
+      </c>
+      <c r="D22" s="1">
         <v>2764.8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>2795.52</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1669.12</v>
       </c>
       <c r="F22" s="1">
         <v>231</v>
@@ -2339,18 +5039,18 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>178</v>
       </c>
       <c r="C23" s="1">
+        <v>1740.8</v>
+      </c>
+      <c r="D23" s="1">
         <v>2723.84</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>2652.16</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1740.8</v>
       </c>
       <c r="F23" s="1">
         <v>231</v>
@@ -2425,18 +5125,18 @@
         <v>1669.12</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>220</v>
       </c>
       <c r="C24" s="1">
+        <v>1751.04</v>
+      </c>
+      <c r="D24" s="1">
         <v>2447.36</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>2734.08</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1751.04</v>
       </c>
       <c r="F24" s="1">
         <v>231</v>
@@ -2511,18 +5211,18 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>210</v>
       </c>
       <c r="C25" s="1">
+        <v>1740.8</v>
+      </c>
+      <c r="D25" s="1">
         <v>2621.44</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>2775.04</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1740.8</v>
       </c>
       <c r="F25" s="1">
         <v>241</v>
@@ -2597,18 +5297,18 @@
         <v>1812.48</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>220</v>
       </c>
       <c r="C26" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D26" s="1">
         <v>2713.6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>2764.8</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F26" s="1">
         <v>220</v>
@@ -2683,18 +5383,18 @@
         <v>1812.48</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>220</v>
       </c>
       <c r="C27" s="1">
+        <v>1771.52</v>
+      </c>
+      <c r="D27" s="1">
         <v>2734.08</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>2754.56</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1771.52</v>
       </c>
       <c r="F27" s="1">
         <v>231</v>
@@ -2769,18 +5469,18 @@
         <v>1761.28</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>220</v>
       </c>
       <c r="C28" s="1">
-        <v>2744.32</v>
+        <v>1792</v>
       </c>
       <c r="D28" s="1">
         <v>2744.32</v>
       </c>
       <c r="E28" s="1">
-        <v>1792</v>
+        <v>2744.32</v>
       </c>
       <c r="F28" s="1">
         <v>231</v>
@@ -2855,18 +5555,18 @@
         <v>1832.96</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>210</v>
       </c>
       <c r="C29" s="1">
+        <v>1781.76</v>
+      </c>
+      <c r="D29" s="1">
         <v>2805.76</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>2703.36</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1781.76</v>
       </c>
       <c r="F29" s="1">
         <v>241</v>
@@ -2941,18 +5641,18 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>220</v>
       </c>
       <c r="C30" s="1">
+        <v>1792</v>
+      </c>
+      <c r="D30" s="1">
         <v>2754.56</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>2713.6</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1792</v>
       </c>
       <c r="F30" s="1">
         <v>220</v>
@@ -3027,18 +5727,18 @@
         <v>1822.72</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>231</v>
       </c>
       <c r="C31" s="1">
+        <v>1771.52</v>
+      </c>
+      <c r="D31" s="1">
         <v>2662.4</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>2795.52</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1771.52</v>
       </c>
       <c r="F31" s="1">
         <v>231</v>
@@ -3113,18 +5813,18 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>207</v>
       </c>
       <c r="C32" s="1">
+        <v>1679.36</v>
+      </c>
+      <c r="D32" s="1">
         <v>2611.1999999999998</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>2652.16</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1679.36</v>
       </c>
       <c r="F32" s="1">
         <v>219</v>
@@ -3199,18 +5899,18 @@
         <v>1730.56</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>207</v>
       </c>
       <c r="C33" s="1">
+        <v>1679.36</v>
+      </c>
+      <c r="D33" s="1">
         <v>2611.1999999999998</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>2652.16</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1679.36</v>
       </c>
       <c r="F33" s="1">
         <v>219</v>
@@ -3289,5 +5989,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>